--- a/agua_inicial.xlsx
+++ b/agua_inicial.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Semana</t>
+          <t>Dia</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -458,7 +458,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>611</v>
+        <v>4638</v>
       </c>
     </row>
     <row r="3">
@@ -469,7 +469,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>29096</v>
+        <v>6607</v>
       </c>
     </row>
     <row r="4">
@@ -480,7 +480,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>4955</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="5">
@@ -491,7 +491,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>6676</v>
+        <v>5668</v>
       </c>
     </row>
     <row r="6">
@@ -502,7 +502,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>5631</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>2365</v>
+        <v>7060</v>
       </c>
     </row>
     <row r="8">
@@ -524,7 +524,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>6271</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="9">
@@ -535,7 +535,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>4632</v>
+        <v>6494</v>
       </c>
     </row>
     <row r="10">
@@ -546,7 +546,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>3634</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="11">
@@ -557,7 +557,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>3897</v>
+        <v>4707</v>
       </c>
     </row>
     <row r="12">
@@ -568,7 +568,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>2583</v>
+        <v>5886</v>
       </c>
     </row>
     <row r="13">
@@ -579,7 +579,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>3823</v>
+        <v>7011</v>
       </c>
     </row>
     <row r="14">
@@ -590,7 +590,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>9347</v>
+        <v>3655</v>
       </c>
     </row>
     <row r="15">
@@ -601,7 +601,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>5046</v>
+        <v>3991</v>
       </c>
     </row>
     <row r="16">
@@ -612,7 +612,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>3175</v>
+        <v>5158</v>
       </c>
     </row>
     <row r="17">
@@ -623,7 +623,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>4044</v>
+        <v>5444</v>
       </c>
     </row>
     <row r="18">
@@ -634,7 +634,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>5291</v>
+        <v>6654</v>
       </c>
     </row>
     <row r="19">
@@ -645,7 +645,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>5560</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="20">
@@ -656,7 +656,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>5371</v>
+        <v>4680</v>
       </c>
     </row>
     <row r="21">
@@ -667,7 +667,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>3811</v>
+        <v>4073</v>
       </c>
     </row>
     <row r="22">
@@ -678,7 +678,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>5728</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="23">
@@ -689,7 +689,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>6246</v>
+        <v>6734</v>
       </c>
     </row>
     <row r="24">
@@ -700,7 +700,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>4298</v>
+        <v>3988</v>
       </c>
     </row>
     <row r="25">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>6714</v>
+        <v>4273</v>
       </c>
     </row>
     <row r="26">
@@ -722,7 +722,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>3583</v>
+        <v>971</v>
       </c>
     </row>
     <row r="27">
@@ -733,7 +733,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>6161</v>
+        <v>3770</v>
       </c>
     </row>
     <row r="28">
@@ -744,7 +744,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>4159</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="29">
@@ -755,7 +755,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>2765</v>
+        <v>4475</v>
       </c>
     </row>
     <row r="30">
@@ -766,7 +766,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>7067</v>
+        <v>5818</v>
       </c>
     </row>
     <row r="31">
@@ -777,7 +777,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>4265</v>
+        <v>4186</v>
       </c>
     </row>
     <row r="32">
@@ -788,7 +788,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>6995</v>
+        <v>5691</v>
       </c>
     </row>
     <row r="33">
@@ -799,7 +799,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>4745</v>
+        <v>4266</v>
       </c>
     </row>
     <row r="34">
@@ -810,7 +810,7 @@
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>5670</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="35">
@@ -821,7 +821,7 @@
         <v>34</v>
       </c>
       <c r="C35" t="n">
-        <v>6901</v>
+        <v>4773</v>
       </c>
     </row>
     <row r="36">
@@ -832,7 +832,7 @@
         <v>35</v>
       </c>
       <c r="C36" t="n">
-        <v>4066</v>
+        <v>3657</v>
       </c>
     </row>
     <row r="37">
@@ -843,7 +843,7 @@
         <v>36</v>
       </c>
       <c r="C37" t="n">
-        <v>4936</v>
+        <v>3894</v>
       </c>
     </row>
     <row r="38">
@@ -854,7 +854,7 @@
         <v>37</v>
       </c>
       <c r="C38" t="n">
-        <v>4308</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="39">
@@ -865,7 +865,7 @@
         <v>38</v>
       </c>
       <c r="C39" t="n">
-        <v>5281</v>
+        <v>4798</v>
       </c>
     </row>
     <row r="40">
@@ -876,7 +876,7 @@
         <v>39</v>
       </c>
       <c r="C40" t="n">
-        <v>3753</v>
+        <v>937</v>
       </c>
     </row>
     <row r="41">
@@ -887,7 +887,7 @@
         <v>40</v>
       </c>
       <c r="C41" t="n">
-        <v>5424</v>
+        <v>3718</v>
       </c>
     </row>
     <row r="42">
@@ -898,7 +898,7 @@
         <v>41</v>
       </c>
       <c r="C42" t="n">
-        <v>5559</v>
+        <v>6797</v>
       </c>
     </row>
     <row r="43">
@@ -909,7 +909,7 @@
         <v>42</v>
       </c>
       <c r="C43" t="n">
-        <v>6157</v>
+        <v>4165</v>
       </c>
     </row>
     <row r="44">
@@ -920,7 +920,7 @@
         <v>43</v>
       </c>
       <c r="C44" t="n">
-        <v>10460</v>
+        <v>5155</v>
       </c>
     </row>
     <row r="45">
@@ -931,7 +931,7 @@
         <v>44</v>
       </c>
       <c r="C45" t="n">
-        <v>6754</v>
+        <v>5523</v>
       </c>
     </row>
     <row r="46">
@@ -942,7 +942,7 @@
         <v>45</v>
       </c>
       <c r="C46" t="n">
-        <v>3555</v>
+        <v>3530</v>
       </c>
     </row>
     <row r="47">
@@ -953,7 +953,7 @@
         <v>46</v>
       </c>
       <c r="C47" t="n">
-        <v>2808</v>
+        <v>5070</v>
       </c>
     </row>
     <row r="48">
@@ -964,7 +964,7 @@
         <v>47</v>
       </c>
       <c r="C48" t="n">
-        <v>2056</v>
+        <v>193</v>
       </c>
     </row>
     <row r="49">
@@ -975,7 +975,7 @@
         <v>48</v>
       </c>
       <c r="C49" t="n">
-        <v>1433</v>
+        <v>4104</v>
       </c>
     </row>
     <row r="50">
@@ -986,7 +986,7 @@
         <v>49</v>
       </c>
       <c r="C50" t="n">
-        <v>6600</v>
+        <v>6043</v>
       </c>
     </row>
     <row r="51">
@@ -997,7 +997,7 @@
         <v>50</v>
       </c>
       <c r="C51" t="n">
-        <v>1459</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="52">
@@ -1008,7 +1008,7 @@
         <v>51</v>
       </c>
       <c r="C52" t="n">
-        <v>5443</v>
+        <v>6661</v>
       </c>
     </row>
     <row r="53">
@@ -1019,7 +1019,7 @@
         <v>52</v>
       </c>
       <c r="C53" t="n">
-        <v>2817</v>
+        <v>3837</v>
       </c>
     </row>
     <row r="54">
@@ -1030,7 +1030,7 @@
         <v>53</v>
       </c>
       <c r="C54" t="n">
-        <v>4623</v>
+        <v>4678</v>
       </c>
     </row>
     <row r="55">
@@ -1041,7 +1041,7 @@
         <v>54</v>
       </c>
       <c r="C55" t="n">
-        <v>4172</v>
+        <v>5452</v>
       </c>
     </row>
     <row r="56">
@@ -1052,7 +1052,7 @@
         <v>55</v>
       </c>
       <c r="C56" t="n">
-        <v>6335</v>
+        <v>3449</v>
       </c>
     </row>
     <row r="57">
@@ -1063,7 +1063,7 @@
         <v>56</v>
       </c>
       <c r="C57" t="n">
-        <v>4739</v>
+        <v>6308</v>
       </c>
     </row>
     <row r="58">
@@ -1074,7 +1074,7 @@
         <v>57</v>
       </c>
       <c r="C58" t="n">
-        <v>5373</v>
+        <v>2726</v>
       </c>
     </row>
     <row r="59">
@@ -1085,7 +1085,7 @@
         <v>58</v>
       </c>
       <c r="C59" t="n">
-        <v>4884</v>
+        <v>3138</v>
       </c>
     </row>
     <row r="60">
@@ -1096,7 +1096,7 @@
         <v>59</v>
       </c>
       <c r="C60" t="n">
-        <v>2791</v>
+        <v>6946</v>
       </c>
     </row>
     <row r="61">
@@ -1107,7 +1107,7 @@
         <v>60</v>
       </c>
       <c r="C61" t="n">
-        <v>4664</v>
+        <v>6238</v>
       </c>
     </row>
     <row r="62">
@@ -1118,7 +1118,7 @@
         <v>61</v>
       </c>
       <c r="C62" t="n">
-        <v>5701</v>
+        <v>5470</v>
       </c>
     </row>
     <row r="63">
@@ -1129,7 +1129,7 @@
         <v>62</v>
       </c>
       <c r="C63" t="n">
-        <v>4879</v>
+        <v>5037</v>
       </c>
     </row>
     <row r="64">
@@ -1140,7 +1140,7 @@
         <v>63</v>
       </c>
       <c r="C64" t="n">
-        <v>5982</v>
+        <v>5574</v>
       </c>
     </row>
     <row r="65">
@@ -1151,7 +1151,7 @@
         <v>64</v>
       </c>
       <c r="C65" t="n">
-        <v>5784</v>
+        <v>3894</v>
       </c>
     </row>
     <row r="66">
@@ -1162,7 +1162,7 @@
         <v>65</v>
       </c>
       <c r="C66" t="n">
-        <v>7154</v>
+        <v>5093</v>
       </c>
     </row>
     <row r="67">
@@ -1173,7 +1173,7 @@
         <v>66</v>
       </c>
       <c r="C67" t="n">
-        <v>4273</v>
+        <v>5950</v>
       </c>
     </row>
     <row r="68">
@@ -1184,7 +1184,7 @@
         <v>67</v>
       </c>
       <c r="C68" t="n">
-        <v>3518</v>
+        <v>4792</v>
       </c>
     </row>
     <row r="69">
@@ -1195,7 +1195,7 @@
         <v>68</v>
       </c>
       <c r="C69" t="n">
-        <v>5880</v>
+        <v>3810</v>
       </c>
     </row>
     <row r="70">
@@ -1206,7 +1206,7 @@
         <v>69</v>
       </c>
       <c r="C70" t="n">
-        <v>5898</v>
+        <v>6692</v>
       </c>
     </row>
     <row r="71">
@@ -1217,7 +1217,7 @@
         <v>70</v>
       </c>
       <c r="C71" t="n">
-        <v>48492</v>
+        <v>6039</v>
       </c>
     </row>
     <row r="72">
@@ -1228,7 +1228,7 @@
         <v>71</v>
       </c>
       <c r="C72" t="n">
-        <v>5736</v>
+        <v>7034</v>
       </c>
     </row>
     <row r="73">
@@ -1239,7 +1239,7 @@
         <v>72</v>
       </c>
       <c r="C73" t="n">
-        <v>5210</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="74">
@@ -1250,7 +1250,7 @@
         <v>73</v>
       </c>
       <c r="C74" t="n">
-        <v>3495</v>
+        <v>6246</v>
       </c>
     </row>
     <row r="75">
@@ -1261,7 +1261,7 @@
         <v>74</v>
       </c>
       <c r="C75" t="n">
-        <v>5301</v>
+        <v>3509</v>
       </c>
     </row>
     <row r="76">
@@ -1272,7 +1272,7 @@
         <v>75</v>
       </c>
       <c r="C76" t="n">
-        <v>2847</v>
+        <v>440</v>
       </c>
     </row>
     <row r="77">
@@ -1283,7 +1283,7 @@
         <v>76</v>
       </c>
       <c r="C77" t="n">
-        <v>5836</v>
+        <v>5185</v>
       </c>
     </row>
     <row r="78">
@@ -1294,7 +1294,7 @@
         <v>77</v>
       </c>
       <c r="C78" t="n">
-        <v>5415</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="79">
@@ -1305,7 +1305,7 @@
         <v>78</v>
       </c>
       <c r="C79" t="n">
-        <v>6377</v>
+        <v>5821</v>
       </c>
     </row>
     <row r="80">
@@ -1316,7 +1316,7 @@
         <v>79</v>
       </c>
       <c r="C80" t="n">
-        <v>7177</v>
+        <v>4334</v>
       </c>
     </row>
     <row r="81">
@@ -1327,7 +1327,7 @@
         <v>80</v>
       </c>
       <c r="C81" t="n">
-        <v>3891</v>
+        <v>7206</v>
       </c>
     </row>
     <row r="82">
@@ -1338,7 +1338,7 @@
         <v>81</v>
       </c>
       <c r="C82" t="n">
-        <v>7164</v>
+        <v>5315</v>
       </c>
     </row>
     <row r="83">
@@ -1349,7 +1349,7 @@
         <v>82</v>
       </c>
       <c r="C83" t="n">
-        <v>5493</v>
+        <v>73</v>
       </c>
     </row>
     <row r="84">
@@ -1360,7 +1360,7 @@
         <v>83</v>
       </c>
       <c r="C84" t="n">
-        <v>268</v>
+        <v>5429</v>
       </c>
     </row>
     <row r="85">
@@ -1371,7 +1371,7 @@
         <v>84</v>
       </c>
       <c r="C85" t="n">
-        <v>6603</v>
+        <v>5449</v>
       </c>
     </row>
     <row r="86">
@@ -1382,7 +1382,7 @@
         <v>85</v>
       </c>
       <c r="C86" t="n">
-        <v>4992</v>
+        <v>7152</v>
       </c>
     </row>
     <row r="87">
@@ -1393,7 +1393,7 @@
         <v>86</v>
       </c>
       <c r="C87" t="n">
-        <v>6594</v>
+        <v>3927</v>
       </c>
     </row>
     <row r="88">
@@ -1404,7 +1404,7 @@
         <v>87</v>
       </c>
       <c r="C88" t="n">
-        <v>5896</v>
+        <v>5297</v>
       </c>
     </row>
     <row r="89">
@@ -1415,7 +1415,7 @@
         <v>88</v>
       </c>
       <c r="C89" t="n">
-        <v>814</v>
+        <v>7054</v>
       </c>
     </row>
     <row r="90">
@@ -1426,7 +1426,7 @@
         <v>89</v>
       </c>
       <c r="C90" t="n">
-        <v>4672</v>
+        <v>3601</v>
       </c>
     </row>
     <row r="91">
@@ -1437,7 +1437,7 @@
         <v>90</v>
       </c>
       <c r="C91" t="n">
-        <v>6338</v>
+        <v>5575</v>
       </c>
     </row>
     <row r="92">
@@ -1448,7 +1448,7 @@
         <v>91</v>
       </c>
       <c r="C92" t="n">
-        <v>3616</v>
+        <v>5583</v>
       </c>
     </row>
     <row r="93">
@@ -1459,7 +1459,7 @@
         <v>92</v>
       </c>
       <c r="C93" t="n">
-        <v>2425</v>
+        <v>6201</v>
       </c>
     </row>
     <row r="94">
@@ -1470,7 +1470,7 @@
         <v>93</v>
       </c>
       <c r="C94" t="n">
-        <v>3941</v>
+        <v>931</v>
       </c>
     </row>
     <row r="95">
@@ -1481,7 +1481,7 @@
         <v>94</v>
       </c>
       <c r="C95" t="n">
-        <v>4457</v>
+        <v>4625</v>
       </c>
     </row>
     <row r="96">
@@ -1492,7 +1492,7 @@
         <v>95</v>
       </c>
       <c r="C96" t="n">
-        <v>4290</v>
+        <v>4135</v>
       </c>
     </row>
     <row r="97">
@@ -1503,7 +1503,7 @@
         <v>96</v>
       </c>
       <c r="C97" t="n">
-        <v>6696</v>
+        <v>4174</v>
       </c>
     </row>
     <row r="98">
@@ -1514,7 +1514,7 @@
         <v>97</v>
       </c>
       <c r="C98" t="n">
-        <v>4829</v>
+        <v>5455</v>
       </c>
     </row>
     <row r="99">
@@ -1525,7 +1525,7 @@
         <v>98</v>
       </c>
       <c r="C99" t="n">
-        <v>3516</v>
+        <v>6113</v>
       </c>
     </row>
     <row r="100">
@@ -1536,7 +1536,7 @@
         <v>99</v>
       </c>
       <c r="C100" t="n">
-        <v>3812</v>
+        <v>3990</v>
       </c>
     </row>
     <row r="101">
@@ -1547,7 +1547,7 @@
         <v>100</v>
       </c>
       <c r="C101" t="n">
-        <v>3795</v>
+        <v>4262</v>
       </c>
     </row>
     <row r="102">
@@ -1558,7 +1558,7 @@
         <v>101</v>
       </c>
       <c r="C102" t="n">
-        <v>2626</v>
+        <v>495</v>
       </c>
     </row>
     <row r="103">
@@ -1569,7 +1569,7 @@
         <v>102</v>
       </c>
       <c r="C103" t="n">
-        <v>6548</v>
+        <v>5131</v>
       </c>
     </row>
     <row r="104">
@@ -1580,7 +1580,7 @@
         <v>103</v>
       </c>
       <c r="C104" t="n">
-        <v>5001</v>
+        <v>5112</v>
       </c>
     </row>
     <row r="105">
@@ -1591,7 +1591,7 @@
         <v>104</v>
       </c>
       <c r="C105" t="n">
-        <v>6310</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="106">
@@ -1602,7 +1602,7 @@
         <v>105</v>
       </c>
       <c r="C106" t="n">
-        <v>5760</v>
+        <v>6996</v>
       </c>
     </row>
     <row r="107">
@@ -1613,7 +1613,7 @@
         <v>106</v>
       </c>
       <c r="C107" t="n">
-        <v>3578</v>
+        <v>3841</v>
       </c>
     </row>
     <row r="108">
@@ -1624,7 +1624,7 @@
         <v>107</v>
       </c>
       <c r="C108" t="n">
-        <v>5728</v>
+        <v>5440</v>
       </c>
     </row>
     <row r="109">
@@ -1635,7 +1635,7 @@
         <v>108</v>
       </c>
       <c r="C109" t="n">
-        <v>6782</v>
+        <v>6127</v>
       </c>
     </row>
     <row r="110">
@@ -1646,7 +1646,7 @@
         <v>109</v>
       </c>
       <c r="C110" t="n">
-        <v>6094</v>
+        <v>4670</v>
       </c>
     </row>
     <row r="111">
@@ -1657,7 +1657,7 @@
         <v>110</v>
       </c>
       <c r="C111" t="n">
-        <v>3805</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="112">
@@ -1668,7 +1668,7 @@
         <v>111</v>
       </c>
       <c r="C112" t="n">
-        <v>4053</v>
+        <v>6263</v>
       </c>
     </row>
     <row r="113">
@@ -1679,7 +1679,7 @@
         <v>112</v>
       </c>
       <c r="C113" t="n">
-        <v>65</v>
+        <v>5761</v>
       </c>
     </row>
     <row r="114">
@@ -1690,7 +1690,7 @@
         <v>113</v>
       </c>
       <c r="C114" t="n">
-        <v>4696</v>
+        <v>6185</v>
       </c>
     </row>
     <row r="115">
@@ -1701,7 +1701,7 @@
         <v>114</v>
       </c>
       <c r="C115" t="n">
-        <v>5220</v>
+        <v>4053</v>
       </c>
     </row>
     <row r="116">
@@ -1712,7 +1712,7 @@
         <v>115</v>
       </c>
       <c r="C116" t="n">
-        <v>4301</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="117">
@@ -1723,7 +1723,7 @@
         <v>116</v>
       </c>
       <c r="C117" t="n">
-        <v>3879</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="118">
@@ -1734,7 +1734,7 @@
         <v>117</v>
       </c>
       <c r="C118" t="n">
-        <v>3585</v>
+        <v>5014</v>
       </c>
     </row>
     <row r="119">
@@ -1745,7 +1745,7 @@
         <v>118</v>
       </c>
       <c r="C119" t="n">
-        <v>5171</v>
+        <v>3908</v>
       </c>
     </row>
     <row r="120">
@@ -1756,7 +1756,7 @@
         <v>119</v>
       </c>
       <c r="C120" t="n">
-        <v>6223</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="121">
@@ -1767,7 +1767,7 @@
         <v>120</v>
       </c>
       <c r="C121" t="n">
-        <v>6698</v>
+        <v>5725</v>
       </c>
     </row>
     <row r="122">
@@ -1778,7 +1778,7 @@
         <v>121</v>
       </c>
       <c r="C122" t="n">
-        <v>2605</v>
+        <v>12463</v>
       </c>
     </row>
     <row r="123">
@@ -1789,7 +1789,7 @@
         <v>122</v>
       </c>
       <c r="C123" t="n">
-        <v>6771</v>
+        <v>24950</v>
       </c>
     </row>
     <row r="124">
@@ -1800,7 +1800,7 @@
         <v>123</v>
       </c>
       <c r="C124" t="n">
-        <v>3735</v>
+        <v>10384</v>
       </c>
     </row>
     <row r="125">
@@ -1811,7 +1811,7 @@
         <v>124</v>
       </c>
       <c r="C125" t="n">
-        <v>5040</v>
+        <v>8928</v>
       </c>
     </row>
   </sheetData>
